--- a/model_lca/LCA_example_mfh02.xlsx
+++ b/model_lca/LCA_example_mfh02.xlsx
@@ -726,8 +726,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K134"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
-      <selection activeCell="P80" sqref="P80"/>
+    <sheetView tabSelected="1" topLeftCell="A115" workbookViewId="0">
+      <selection activeCell="C136" sqref="C136"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2818,8 +2818,8 @@
         <v>0.72899999999999998</v>
       </c>
       <c r="C124" s="2">
-        <f>I9</f>
-        <v>0.14208333333333334</v>
+        <f>I10</f>
+        <v>0.77110333333333347</v>
       </c>
     </row>
     <row r="125" spans="1:9" x14ac:dyDescent="0.35">
@@ -2830,8 +2830,8 @@
         <v>2.87</v>
       </c>
       <c r="C125" s="2">
-        <f>I19+I30</f>
-        <v>2.0596666666666666E-2</v>
+        <f>I20+I31</f>
+        <v>3.1205783666666669</v>
       </c>
     </row>
     <row r="126" spans="1:9" x14ac:dyDescent="0.35">
@@ -2842,8 +2842,8 @@
         <v>6.02</v>
       </c>
       <c r="C126" s="2">
-        <f>I42+I52</f>
-        <v>0.25746466666666667</v>
+        <f>I43+I53</f>
+        <v>6.1276554999999995</v>
       </c>
     </row>
     <row r="127" spans="1:9" x14ac:dyDescent="0.35">
@@ -2854,8 +2854,8 @@
         <v>1.37</v>
       </c>
       <c r="C127" s="2">
-        <f>I57+I62+I71</f>
-        <v>0.67269333333333337</v>
+        <f>I58+I63+I72</f>
+        <v>1.0967850000000001</v>
       </c>
     </row>
     <row r="128" spans="1:9" x14ac:dyDescent="0.35">
@@ -2866,8 +2866,8 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="C128" s="2">
-        <f>I83</f>
-        <v>0.16271999999999998</v>
+        <f>I84</f>
+        <v>2.9716871666666673</v>
       </c>
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.35">
@@ -2878,8 +2878,8 @@
         <v>1.54</v>
       </c>
       <c r="C129" s="2">
-        <f>I93</f>
-        <v>1.5466666666666669</v>
+        <f>I94</f>
+        <v>1.6229498666666669</v>
       </c>
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.35">
@@ -2890,8 +2890,8 @@
         <v>5.7500000000000002E-2</v>
       </c>
       <c r="C130" s="3">
-        <f>I86</f>
-        <v>0</v>
+        <f>I87</f>
+        <v>4.6949771689497717E-2</v>
       </c>
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.35">
@@ -2902,8 +2902,8 @@
         <v>0.70799999999999996</v>
       </c>
       <c r="C131" s="3">
-        <f>I108</f>
-        <v>0</v>
+        <f>I109</f>
+        <v>0.57482544354066778</v>
       </c>
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.35">
@@ -2914,8 +2914,8 @@
         <v>1.19</v>
       </c>
       <c r="C132" s="5">
-        <f>I112+I98</f>
-        <v>0</v>
+        <f>I113+I99</f>
+        <v>1.3522918310502283</v>
       </c>
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.35">
@@ -2937,8 +2937,8 @@
         <v>0.84299999999999997</v>
       </c>
       <c r="C134" s="5">
-        <f>I118</f>
-        <v>0</v>
+        <f>I119</f>
+        <v>1.0797600000000001</v>
       </c>
     </row>
   </sheetData>
